--- a/DesignDoc/CardLibrary.xlsx
+++ b/DesignDoc/CardLibrary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\SiegeTactics\SiegeTactics\DesignDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\SiegeTactics\AutoSiege\DesignDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B317ABE-1374-4343-B45B-78CE4EB33EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC0175A-254D-48A5-85F2-DF209C3D9C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38010" yWindow="390" windowWidth="28800" windowHeight="15555" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -583,24 +577,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -615,10 +597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,16 +914,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893417B8-0E04-4E14-A7DD-266D70EB268C}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="69.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,7 +961,6 @@
       <c r="B2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -1002,7 +984,6 @@
       <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +1007,6 @@
       <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -1043,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1296,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1434,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1457,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1480,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1526,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1549,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1572,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1641,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1664,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -1687,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -1710,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1733,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -1756,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1779,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -1802,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -1825,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -1848,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -1871,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -1894,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -1917,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -1940,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -1963,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -1986,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2032,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -2055,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -2078,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2101,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -2124,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -2147,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2170,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -2193,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2216,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -2239,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -2262,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -2285,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2308,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2331,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2354,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
@@ -2377,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
@@ -2400,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -2423,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2446,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -2469,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
@@ -2492,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
@@ -2516,398 +2496,372 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>5</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="2">
-        <v>2</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>5</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>9</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>7</v>
       </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>5</v>
       </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>5</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>7</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>5</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="2">
-        <v>2</v>
-      </c>
-      <c r="G74" s="2">
-        <v>3</v>
-      </c>
-      <c r="H74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>5</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>6</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>7</v>
       </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="2">
-        <v>3</v>
-      </c>
-      <c r="G76" s="2">
+      <c r="F76" s="1">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1">
         <v>9</v>
       </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>6</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>6</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="1">
         <v>9</v>
       </c>
-      <c r="H77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>5</v>
       </c>
-      <c r="G78" s="2">
-        <v>4</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>6</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>7</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="1">
         <v>7</v>
       </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>6</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="2">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="F80" s="1">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1">
         <v>6</v>
       </c>
-      <c r="H80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>6</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="2">
-        <v>2</v>
-      </c>
-      <c r="G81" s="2">
+      <c r="F81" s="1">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1">
         <v>8</v>
       </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>6</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>4</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="F82" s="1">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>6</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>5</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="1">
         <v>7</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>6</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>7</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="1">
         <v>10</v>
       </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H84" xr:uid="{104CD0FF-1B12-42B8-9BF6-324AEB9FF83D}"/>

--- a/DesignDoc/CardLibrary.xlsx
+++ b/DesignDoc/CardLibrary.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\SiegeTactics\AutoSiege\DesignDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC0175A-254D-48A5-85F2-DF209C3D9C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1BE79-2BBA-43EB-BD53-EE44923A4B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
+    <workbookView xWindow="-52785" yWindow="1920" windowWidth="28800" windowHeight="15555" xr2:uid="{FFD96320-E16A-4A22-8FE4-AD96CB7CA0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$84</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,30 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Rarity</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Mana</t>
-  </si>
-  <si>
     <t>Alleycat</t>
   </si>
   <si>
@@ -562,6 +535,30 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
   </si>
 </sst>
 </file>
@@ -577,12 +574,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -597,14 +600,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,6 +700,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F13E364D-7C62-44DA-B752-BC1B1631CFE7}" name="Table2" displayName="Table2" ref="A1:H84" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:H84" xr:uid="{021FAB99-78BD-4F65-B27E-D1DEAC826FA7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2C91FBA8-9EB5-4AA7-80AD-F8992115CF67}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3362E686-60AB-4471-AAFA-946631A090C6}" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5BBD2CB1-22DA-4239-8EE1-5B34D5615FE2}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{84A3FF86-EFE2-48E4-B010-8C2BA3BDF582}" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6E415410-105C-43C9-B39D-12F317C416B3}" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{665BF8EB-77D5-44B0-A1CC-3073B30D0B6E}" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9A5A798E-9072-40FA-AD00-6891D1DE2EA6}" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{60B20FBA-EFB8-44ED-8332-A539C4CDB96A}" name="Column8" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,55 +1019,56 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="2" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -979,16 +1082,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1002,16 +1105,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1025,16 +1128,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1048,16 +1151,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1071,16 +1174,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1094,16 +1197,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1117,16 +1220,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1140,16 +1243,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1163,16 +1266,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1186,16 +1289,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1209,16 +1312,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1232,16 +1335,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1255,16 +1358,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1278,16 +1381,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1301,16 +1404,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1324,16 +1427,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1347,16 +1450,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -1370,16 +1473,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -1393,16 +1496,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1416,16 +1519,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
@@ -1439,16 +1542,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -1462,16 +1565,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1485,16 +1588,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1508,16 +1611,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1531,16 +1634,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1554,16 +1657,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -1577,16 +1680,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1600,16 +1703,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
@@ -1623,16 +1726,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
@@ -1646,16 +1749,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
@@ -1669,16 +1772,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
@@ -1692,16 +1795,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1">
         <v>8</v>
@@ -1715,16 +1818,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1">
         <v>4</v>
@@ -1738,16 +1841,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -1761,16 +1864,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -1784,16 +1887,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -1807,16 +1910,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
@@ -1830,16 +1933,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
@@ -1853,16 +1956,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1">
         <v>4</v>
@@ -1874,18 +1977,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1897,18 +2000,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -1922,16 +2025,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -1945,16 +2048,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1968,16 +2071,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -1991,16 +2094,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -2014,16 +2117,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -2037,16 +2140,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -2060,16 +2163,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -2083,16 +2186,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
@@ -2106,16 +2209,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -2129,16 +2232,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
@@ -2152,16 +2255,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1">
         <v>4</v>
@@ -2175,16 +2278,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F55" s="1">
         <v>6</v>
@@ -2198,16 +2301,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2221,16 +2324,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2244,16 +2347,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F58" s="1">
         <v>5</v>
@@ -2267,16 +2370,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F59" s="1">
         <v>9</v>
@@ -2290,16 +2393,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -2313,16 +2416,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F61" s="1">
         <v>4</v>
@@ -2336,16 +2439,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -2359,16 +2462,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D63" s="1">
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -2382,16 +2485,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
@@ -2405,16 +2508,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
@@ -2428,16 +2531,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F66" s="1">
         <v>7</v>
@@ -2451,16 +2554,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -2474,16 +2577,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1">
         <v>12</v>
@@ -2497,16 +2600,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F69" s="1">
         <v>2</v>
@@ -2520,16 +2623,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F70" s="1">
         <v>9</v>
@@ -2543,16 +2646,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2566,16 +2669,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F72" s="1">
         <v>5</v>
@@ -2589,16 +2692,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F73" s="1">
         <v>6</v>
@@ -2612,16 +2715,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F74" s="1">
         <v>2</v>
@@ -2635,16 +2738,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1">
         <v>6</v>
@@ -2658,16 +2761,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F76" s="1">
         <v>3</v>
@@ -2681,16 +2784,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1">
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F77" s="1">
         <v>6</v>
@@ -2704,16 +2807,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D78" s="1">
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2727,16 +2830,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D79" s="1">
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F79" s="1">
         <v>7</v>
@@ -2750,16 +2853,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D80" s="1">
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F80" s="1">
         <v>3</v>
@@ -2773,16 +2876,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
@@ -2796,16 +2899,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D82" s="1">
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F82" s="1">
         <v>4</v>
@@ -2819,16 +2922,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D83" s="1">
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -2842,16 +2945,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F84" s="1">
         <v>7</v>
@@ -2864,7 +2967,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H84" xr:uid="{104CD0FF-1B12-42B8-9BF6-324AEB9FF83D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>